--- a/EXCEL_OUPUT/Audit Report Fuji SMBE Macquarie 2022.xlsx
+++ b/EXCEL_OUPUT/Audit Report Fuji SMBE Macquarie 2022.xlsx
@@ -46,51 +46,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="435">
   <si>
     <t>THE POWER OF BEING UNDERSTOOD</t>
   </si>
   <si>
-    <t>AUDITITAXICONSUL TING</t>
-  </si>
-  <si>
-    <t>RSM Austr alia Par ers is a member of the RSM net work and as RSM RSM is tra</t>
-  </si>
-  <si>
-    <t>RSM inetworki is accounting and</t>
-  </si>
-  <si>
-    <t>RSM Austra alia Paitners ABN 36 965</t>
-  </si>
-  <si>
-    <t>Liability limited by a scheme appr oved under Protastouasantwdieglatin</t>
+    <t>AUDITITAXI ICONSULTING</t>
+  </si>
+  <si>
+    <t>RSM Austr alia Partners isa amember of the RSM network andt trades as RSM. RSMis the</t>
+  </si>
+  <si>
+    <t>RSM Australla Partners ABN 36 965 185036</t>
+  </si>
+  <si>
+    <t>Liability limitedt byas scheme approvedunder AviansSimsasteatw</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>rading name used by the members of the RSM RSM is tra</t>
-  </si>
-  <si>
-    <t>The RSM ki is not itself as separate in any jurisdiction.</t>
-  </si>
-  <si>
-    <t>Eachmer mber of the</t>
-  </si>
-  <si>
-    <t>ISOS</t>
-  </si>
-  <si>
-    <t>Director: Peter</t>
-  </si>
-  <si>
-    <t>1314/</t>
-  </si>
-  <si>
-    <t>Silsby</t>
-  </si>
-  <si>
-    <t>Director: Wee</t>
+    <t>The RSM nets workist noti jtself aseparate legalentity inanyjurisdiction.</t>
+  </si>
+  <si>
+    <t>Eachmember of the</t>
+  </si>
+  <si>
+    <t>Diréctor: Peter</t>
+  </si>
+  <si>
+    <t>Director: Weel</t>
   </si>
   <si>
     <t>Sale of goods and services:</t>
@@ -168,7 +153,7 @@
     <t>Preparation of the financial statements</t>
   </si>
   <si>
-    <t>RSM Australia Partners</t>
+    <t>Partners</t>
   </si>
   <si>
     <t>19000</t>
@@ -186,6 +171,12 @@
     <t>383276</t>
   </si>
   <si>
+    <t>20:</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
     <t>Final dividend paid with respect to last financial year</t>
   </si>
   <si>
@@ -198,7 +189,10 @@
     <t>2010507</t>
   </si>
   <si>
-    <t>460000</t>
+    <t>202</t>
+  </si>
+  <si>
+    <t>460</t>
   </si>
   <si>
     <t>1586084</t>
@@ -243,7 +237,7 @@
     <t>778740</t>
   </si>
   <si>
-    <t>222397</t>
+    <t>222</t>
   </si>
   <si>
     <t>740742</t>
@@ -312,6 +306,9 @@
     <t>Long service leave</t>
   </si>
   <si>
+    <t>benefits</t>
+  </si>
+  <si>
     <t>202925</t>
   </si>
   <si>
@@ -339,13 +336,16 @@
     <t>Non-current assets</t>
   </si>
   <si>
-    <t>Goodwill at cost</t>
+    <t>Goodwill - at cost</t>
   </si>
   <si>
     <t>58467</t>
   </si>
   <si>
-    <t>Leased asset - right-of-use</t>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Leased asset right-of-use</t>
   </si>
   <si>
     <t>Less: Accumulated depreciation</t>
@@ -408,25 +408,25 @@
     <t>Note 10. Property, plant and equipment</t>
   </si>
   <si>
-    <t>Leasehold improvements at cost</t>
+    <t>Leasehold improvements - at cost</t>
   </si>
   <si>
     <t>Plant and equipment - at cost</t>
   </si>
   <si>
-    <t>Furniture, fittings and fixtures at cost</t>
+    <t>Furniture, fittings and fixtures - at cost</t>
   </si>
   <si>
     <t>Motor vehicles - at cost</t>
   </si>
   <si>
-    <t>Computer equipment at cost</t>
-  </si>
-  <si>
-    <t>Office equipment at cost</t>
-  </si>
-  <si>
-    <t>Tools and dies at cost</t>
+    <t>Computer equipment - at cost</t>
+  </si>
+  <si>
+    <t>Office equipment - at cost</t>
+  </si>
+  <si>
+    <t>Tools and dies - at cost</t>
   </si>
   <si>
     <t>66000</t>
@@ -486,7 +486,10 @@
     <t>854547</t>
   </si>
   <si>
-    <t>(19,000)</t>
+    <t>66</t>
+  </si>
+  <si>
+    <t>(19</t>
   </si>
   <si>
     <t>47000</t>
@@ -552,6 +555,9 @@
     <t>December</t>
   </si>
   <si>
+    <t>Leasehold improvements $</t>
+  </si>
+  <si>
     <t>(12,000)</t>
   </si>
   <si>
@@ -600,6 +606,9 @@
     <t>(14,369)</t>
   </si>
   <si>
+    <t>Office equipment $</t>
+  </si>
+  <si>
     <t>(3,729)</t>
   </si>
   <si>
@@ -615,7 +624,7 @@
     <t>16911</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Total $</t>
   </si>
   <si>
     <t>(22,323)</t>
@@ -648,7 +657,7 @@
     <t>116594</t>
   </si>
   <si>
-    <t>Raw materials and stores at cost</t>
+    <t>Raw materials and stores - at cost</t>
   </si>
   <si>
     <t>Less: Provision for impairment</t>
@@ -696,10 +705,13 @@
     <t>Short-term deposits</t>
   </si>
   <si>
-    <t>407670</t>
-  </si>
-  <si>
-    <t>700000</t>
+    <t>2937622</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>700</t>
   </si>
   <si>
     <t>1107670</t>
@@ -711,13 +723,13 @@
     <t>Opening balance</t>
   </si>
   <si>
-    <t>(Debited)credited to profit or loss</t>
+    <t>(Debited)/credited to profit or loss</t>
   </si>
   <si>
     <t>Closing balance</t>
   </si>
   <si>
-    <t>current year movement</t>
+    <t>- current year movement</t>
   </si>
   <si>
     <t>202883</t>
@@ -747,10 +759,10 @@
     <t>The overall movement in the deferred tax account is as follows:</t>
   </si>
   <si>
-    <t>160838</t>
-  </si>
-  <si>
-    <t>16084</t>
+    <t>160</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>25961</t>
@@ -780,7 +792,7 @@
     <t>Tax at the statutory tax rate of 30%</t>
   </si>
   <si>
-    <t>Tax effect amounts which are not deductible/taxable) in calculating taxable income:</t>
+    <t>Tax effect amounts which are not deductiple/(axable) in calculating taxable income:</t>
   </si>
   <si>
     <t>Non-allowable items</t>
@@ -870,10 +882,10 @@
     <t>35164</t>
   </si>
   <si>
-    <t>74276</t>
-  </si>
-  <si>
-    <t>65871</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
   <si>
     <t>363125</t>
@@ -921,165 +933,159 @@
     <t>34401</t>
   </si>
   <si>
+    <t>6357</t>
+  </si>
+  <si>
+    <t>10301</t>
+  </si>
+  <si>
+    <t>Revenue from contracts with customers</t>
+  </si>
+  <si>
+    <t>Sale of goods</t>
+  </si>
+  <si>
+    <t>Disaggregation of revenue</t>
+  </si>
+  <si>
+    <t>The disaggregation of revenue from contracts with customers is as follows:</t>
+  </si>
+  <si>
+    <t>14205101</t>
+  </si>
+  <si>
+    <t>10556788</t>
+  </si>
+  <si>
+    <t>Major product lines</t>
+  </si>
+  <si>
+    <t>Electric Switchboards</t>
+  </si>
+  <si>
+    <t>Geographical regions</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Timing of revenue recognition</t>
+  </si>
+  <si>
+    <t>Goods transferred at a point in time</t>
+  </si>
+  <si>
+    <t>14502101</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Operating activities:</t>
+  </si>
+  <si>
+    <t>Receipts from customers</t>
+  </si>
+  <si>
+    <t>Payments to suppliers and employees</t>
+  </si>
+  <si>
+    <t>Income taxes paid</t>
+  </si>
+  <si>
+    <t>Net cash from/used in) operating activities</t>
+  </si>
+  <si>
+    <t>Investing activities:</t>
+  </si>
+  <si>
+    <t>Payments for property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Proceeds from disposal of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Net cash used in investing activities</t>
+  </si>
+  <si>
+    <t>Financing activities:</t>
+  </si>
+  <si>
+    <t>Interest payment for lease liabilities</t>
+  </si>
+  <si>
+    <t>Payment for lease liabilities</t>
+  </si>
+  <si>
+    <t>Dividends paid to parent entity</t>
+  </si>
+  <si>
+    <t>Net cash used in financing activities</t>
+  </si>
+  <si>
+    <t>Net increase/decrease) in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the beginning of the financial year</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the end of the financial year</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2022 $</t>
+  </si>
+  <si>
+    <t>16384897</t>
+  </si>
+  <si>
+    <t>(13,864,783)</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>(403,327)</t>
+  </si>
+  <si>
+    <t>2107001</t>
+  </si>
+  <si>
+    <t>(45,493)</t>
+  </si>
+  <si>
+    <t>22323</t>
+  </si>
+  <si>
+    <t>(23,170)</t>
+  </si>
+  <si>
+    <t>(253,879)</t>
+  </si>
+  <si>
+    <t>1829952</t>
+  </si>
+  <si>
+    <t>202 $</t>
+  </si>
+  <si>
+    <t>11083</t>
+  </si>
+  <si>
+    <t>(11,161,612)</t>
+  </si>
+  <si>
     <t>205</t>
   </si>
   <si>
-    <t>3739</t>
-  </si>
-  <si>
-    <t>6357</t>
-  </si>
-  <si>
-    <t>10301</t>
-  </si>
-  <si>
-    <t>Revenue from contracts with customers</t>
-  </si>
-  <si>
-    <t>Sale of goods</t>
-  </si>
-  <si>
-    <t>Disaggregation of revenue</t>
-  </si>
-  <si>
-    <t>The disaggregation of revenue from contracts with customers is as follows:</t>
-  </si>
-  <si>
-    <t>14205101</t>
-  </si>
-  <si>
-    <t>10556788</t>
-  </si>
-  <si>
-    <t>Major product lines</t>
-  </si>
-  <si>
-    <t>Electric Switchboards</t>
-  </si>
-  <si>
-    <t>Geographical regions</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Timing of revenue recognition</t>
-  </si>
-  <si>
-    <t>Goods transferred at a point in time</t>
-  </si>
-  <si>
-    <t>14502101</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>Operating activities:</t>
-  </si>
-  <si>
-    <t>Receipts from customers</t>
-  </si>
-  <si>
-    <t>Payments to suppliers and employees</t>
-  </si>
-  <si>
-    <t>Income taxes paid</t>
-  </si>
-  <si>
-    <t>Net cash from/(used in) operating activities</t>
-  </si>
-  <si>
-    <t>Investing activities:</t>
-  </si>
-  <si>
-    <t>Payments for property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Proceeds from disposal of property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Net cash used in investing activities</t>
-  </si>
-  <si>
-    <t>Financing activities:</t>
-  </si>
-  <si>
-    <t>Interest payment for lease liabilities</t>
-  </si>
-  <si>
-    <t>Payment for lease liabilities</t>
-  </si>
-  <si>
-    <t>Dividends paid to parent entity</t>
-  </si>
-  <si>
-    <t>Net cash used in financing activities</t>
-  </si>
-  <si>
-    <t>Net increase/(decrease) in cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents at the beginning of the financial year</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents at the end of the financial year</t>
-  </si>
-  <si>
-    <t>For</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2022 $</t>
-  </si>
-  <si>
-    <t>16384897</t>
-  </si>
-  <si>
-    <t>(13,864,783)</t>
-  </si>
-  <si>
-    <t>Interest paid</t>
-  </si>
-  <si>
-    <t>(403,327)</t>
-  </si>
-  <si>
-    <t>2107001</t>
-  </si>
-  <si>
-    <t>(45,493)</t>
-  </si>
-  <si>
-    <t>22323</t>
-  </si>
-  <si>
-    <t>(23,170)</t>
-  </si>
-  <si>
-    <t>(253,879)</t>
-  </si>
-  <si>
-    <t>1829952</t>
-  </si>
-  <si>
-    <t>2937622</t>
-  </si>
-  <si>
-    <t>2021 $</t>
-  </si>
-  <si>
-    <t>11083006</t>
-  </si>
-  <si>
-    <t>(11,161,612)</t>
-  </si>
-  <si>
     <t>(29,462)</t>
   </si>
   <si>
@@ -1248,9 +1254,6 @@
     <t>Retained earnings</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -1272,61 +1275,10 @@
     <t>15</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>2113630</t>
-  </si>
-  <si>
-    <t>8275275</t>
-  </si>
-  <si>
-    <t>1752426</t>
-  </si>
-  <si>
-    <t>10027701</t>
-  </si>
-  <si>
-    <t>295176</t>
-  </si>
-  <si>
-    <t>3821557</t>
-  </si>
-  <si>
-    <t>524835</t>
-  </si>
-  <si>
-    <t>4346392</t>
-  </si>
-  <si>
-    <t>2493525</t>
-  </si>
-  <si>
-    <t>6241775</t>
-  </si>
-  <si>
-    <t>2113789</t>
-  </si>
-  <si>
-    <t>8355564</t>
-  </si>
-  <si>
-    <t>22815</t>
-  </si>
-  <si>
-    <t>3461703</t>
-  </si>
-  <si>
-    <t>884802</t>
-  </si>
-  <si>
-    <t>4346505</t>
   </si>
   <si>
     <t>Sales revenue</t>
@@ -1778,7 +1730,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1795,41 +1747,29 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1858,34 +1798,34 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1895,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1912,33 +1852,33 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="B2">
+        <v>2022</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
-      <c r="B3">
-        <v>2022</v>
-      </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="C4" t="s">
-        <v>23</v>
+      <c r="A4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6">
+        <v>69</v>
+      </c>
+      <c r="B5">
         <v>69120</v>
       </c>
-      <c r="C6" t="s">
-        <v>72</v>
+      <c r="C5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1970,78 +1910,78 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +1991,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2070,69 +2010,74 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2161,31 +2106,31 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>98</v>
@@ -2217,23 +2162,23 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2358,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2388,250 +2333,245 @@
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="D4" t="s">
-        <v>23</v>
+      <c r="A4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" t="s">
-        <v>100</v>
-      </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>100</v>
-      </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="C24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2678,120 +2618,120 @@
     </row>
     <row r="2" spans="1:9">
       <c r="D2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" t="s">
         <v>163</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>129</v>
@@ -2800,10 +2740,10 @@
         <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
         <v>139</v>
@@ -2812,7 +2752,7 @@
         <v>142</v>
       </c>
       <c r="H9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I9" t="s">
         <v>145</v>
@@ -2844,53 +2784,53 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +2840,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2926,28 +2866,19 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+      <c r="C5">
         <v>2023</v>
       </c>
     </row>
@@ -2983,84 +2914,84 @@
     </row>
     <row r="2" spans="1:5">
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="D7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3088,48 +3019,51 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2">
-        <v>2022</v>
+      <c r="B2" t="s">
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5">
-        <v>2937622</v>
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7">
-        <v>2937622</v>
+      <c r="B7" t="s">
+        <v>219</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3161,17 +3095,17 @@
         <v>2022</v>
       </c>
       <c r="C2">
-        <v>2021</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B4">
         <v>2113630</v>
@@ -3209,7 +3143,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>2021</v>
@@ -3217,10 +3151,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D3">
         <v>163772</v>
@@ -3228,13 +3162,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D4">
         <v>39111</v>
@@ -3242,10 +3176,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D5">
         <v>202883</v>
@@ -3280,66 +3214,66 @@
         <v>2022</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B5">
         <v>147907</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B6">
         <v>16230</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B7">
         <v>24924</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B8">
         <v>189061</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3368,7 +3302,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3376,104 +3310,104 @@
         <v>2022</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B6">
         <v>705150</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B7">
         <v>13822</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B8">
         <v>718972</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B10">
         <v>2391222</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B11">
         <v>717367</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B13">
         <v>1605</v>
       </c>
       <c r="C13" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B14">
         <v>718972</v>
       </c>
       <c r="C14" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3505,165 +3439,165 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D17" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="C18" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3695,64 +3629,61 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3781,44 +3712,44 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3847,66 +3778,66 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" t="s">
         <v>302</v>
-      </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3944,113 +3875,113 @@
     </row>
     <row r="2" spans="1:6">
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="E3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4085,230 +4016,230 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E7" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="D8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E12" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E14" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E18" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E20" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E21" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C22" t="s">
         <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>340</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4340,150 +4271,150 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C15" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D16" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -4493,7 +4424,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4515,390 +4446,379 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
+        <v>329</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
+      <c r="A3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>380</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5">
+        <v>2937622</v>
+      </c>
+      <c r="D5">
+        <v>1107</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" t="s">
-        <v>218</v>
+        <v>381</v>
+      </c>
+      <c r="C6">
+        <v>2113630</v>
+      </c>
+      <c r="D6">
+        <v>2493</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" t="s">
-        <v>419</v>
+        <v>402</v>
+      </c>
+      <c r="C7">
+        <v>3114168</v>
+      </c>
+      <c r="D7">
+        <v>2523986</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" t="s">
-        <v>213</v>
+        <v>403</v>
+      </c>
+      <c r="C8">
+        <v>109855</v>
+      </c>
+      <c r="D8">
+        <v>116594</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>381</v>
-      </c>
-      <c r="B9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" t="s">
-        <v>199</v>
+        <v>384</v>
+      </c>
+      <c r="C9">
+        <v>8275275</v>
+      </c>
+      <c r="D9">
+        <v>6241775</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" t="s">
-        <v>412</v>
-      </c>
-      <c r="D10" t="s">
-        <v>420</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>385</v>
+      </c>
+      <c r="B11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11">
+        <v>854547</v>
+      </c>
+      <c r="D11">
+        <v>979110</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" t="s">
-        <v>162</v>
+        <v>404</v>
+      </c>
+      <c r="C12">
+        <v>650351</v>
+      </c>
+      <c r="D12">
+        <v>873329</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
-        <v>403</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
+        <v>405</v>
+      </c>
+      <c r="C13">
+        <v>58467</v>
+      </c>
+      <c r="D13">
+        <v>58467</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
-        <v>404</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="C14">
+        <v>189061</v>
+      </c>
+      <c r="D14">
+        <v>202883</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" t="s">
-        <v>224</v>
+        <v>388</v>
+      </c>
+      <c r="C15">
+        <v>1752426</v>
+      </c>
+      <c r="D15">
+        <v>2113789</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>386</v>
-      </c>
-      <c r="C16" t="s">
-        <v>413</v>
-      </c>
-      <c r="D16" t="s">
-        <v>421</v>
+        <v>389</v>
+      </c>
+      <c r="C16">
+        <v>10027701</v>
+      </c>
+      <c r="D16">
+        <v>8355564</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>387</v>
-      </c>
-      <c r="C17" t="s">
-        <v>414</v>
-      </c>
-      <c r="D17" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>388</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>391</v>
+      </c>
+      <c r="B19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19">
+        <v>1663011</v>
+      </c>
+      <c r="D19">
+        <v>2025981</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B20" t="s">
-        <v>405</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
+        <v>407</v>
+      </c>
+      <c r="C20">
+        <v>412899</v>
+      </c>
+      <c r="D20">
+        <v>340690</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>390</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" t="s">
-        <v>94</v>
+        <v>408</v>
+      </c>
+      <c r="C21">
+        <v>69120</v>
+      </c>
+      <c r="D21">
+        <v>69120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
+        <v>238</v>
+      </c>
+      <c r="C22">
+        <v>1145366</v>
+      </c>
+      <c r="D22">
+        <v>780700</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>393</v>
       </c>
       <c r="B23" t="s">
-        <v>408</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
+        <v>409</v>
+      </c>
+      <c r="C23">
+        <v>235985</v>
+      </c>
+      <c r="D23">
+        <v>222397</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>391</v>
-      </c>
-      <c r="B24" t="s">
-        <v>409</v>
-      </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
+        <v>394</v>
+      </c>
+      <c r="C24">
+        <v>295176</v>
+      </c>
+      <c r="D24">
+        <v>22815</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>392</v>
-      </c>
-      <c r="C25" t="s">
-        <v>415</v>
-      </c>
-      <c r="D25" t="s">
-        <v>423</v>
+        <v>395</v>
+      </c>
+      <c r="C25">
+        <v>3821557</v>
+      </c>
+      <c r="D25">
+        <v>3461703</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>393</v>
-      </c>
-      <c r="C26" t="s">
-        <v>416</v>
-      </c>
-      <c r="D26" t="s">
-        <v>424</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>392</v>
+      </c>
+      <c r="B27" t="s">
+        <v>407</v>
+      </c>
+      <c r="C27">
+        <v>22099</v>
+      </c>
+      <c r="D27">
+        <v>144060</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B28" t="s">
-        <v>406</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" t="s">
-        <v>95</v>
+        <v>409</v>
+      </c>
+      <c r="C28">
+        <v>502736</v>
+      </c>
+      <c r="D28">
+        <v>740742</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>391</v>
-      </c>
-      <c r="B29" t="s">
-        <v>409</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
+        <v>396</v>
+      </c>
+      <c r="C29">
+        <v>524835</v>
+      </c>
+      <c r="D29">
+        <v>884802</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>394</v>
-      </c>
-      <c r="C30" t="s">
-        <v>417</v>
-      </c>
-      <c r="D30" t="s">
-        <v>425</v>
+        <v>397</v>
+      </c>
+      <c r="C30">
+        <v>4346392</v>
+      </c>
+      <c r="D30">
+        <v>4346505</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>395</v>
-      </c>
-      <c r="C31" t="s">
-        <v>418</v>
-      </c>
-      <c r="D31" t="s">
-        <v>426</v>
+        <v>398</v>
+      </c>
+      <c r="C31">
+        <v>5681309</v>
+      </c>
+      <c r="D31">
+        <v>4009059</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>396</v>
-      </c>
-      <c r="C32" t="s">
-        <v>376</v>
-      </c>
-      <c r="D32" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>397</v>
+        <v>400</v>
+      </c>
+      <c r="B33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C33">
+        <v>760000</v>
+      </c>
+      <c r="D33">
+        <v>760000</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>398</v>
-      </c>
-      <c r="B34" t="s">
-        <v>410</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" t="s">
-        <v>54</v>
+        <v>401</v>
+      </c>
+      <c r="C34">
+        <v>4921309</v>
+      </c>
+      <c r="D34">
+        <v>3249059</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>399</v>
-      </c>
-      <c r="C35" t="s">
-        <v>371</v>
-      </c>
-      <c r="D35" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>375</v>
-      </c>
-      <c r="C36" t="s">
-        <v>376</v>
-      </c>
-      <c r="D36" t="s">
-        <v>374</v>
+        <v>377</v>
+      </c>
+      <c r="C35">
+        <v>5681309</v>
+      </c>
+      <c r="D35">
+        <v>4009059</v>
       </c>
     </row>
   </sheetData>
@@ -4908,7 +4828,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4930,181 +4850,184 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B4" t="s">
         <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" t="s">
         <v>428</v>
-      </c>
-      <c r="C5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D5" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" t="s">
         <v>429</v>
-      </c>
-      <c r="C6" t="s">
-        <v>436</v>
-      </c>
-      <c r="D6" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
         <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" t="s">
         <v>430</v>
-      </c>
-      <c r="B8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" t="s">
-        <v>437</v>
-      </c>
-      <c r="D8" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" t="s">
         <v>431</v>
-      </c>
-      <c r="C9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" t="s">
         <v>432</v>
-      </c>
-      <c r="C10" t="s">
-        <v>439</v>
-      </c>
-      <c r="D10" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C11" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="D11" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C12" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="D12" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
-        <v>443</v>
-      </c>
-      <c r="D14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>357</v>
-      </c>
-      <c r="C16" t="s">
-        <v>370</v>
-      </c>
-      <c r="D16" t="s">
-        <v>368</v>
+      <c r="C15" t="s">
+        <v>427</v>
+      </c>
+      <c r="D15" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>359</v>
+      </c>
+      <c r="C17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>359</v>
-      </c>
-      <c r="C18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" t="s">
+        <v>372</v>
+      </c>
+      <c r="D19" t="s">
         <v>370</v>
-      </c>
-      <c r="D18" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5139,42 +5062,42 @@
         <v>2022</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>108512</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>44682</v>
@@ -5209,7 +5132,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>2021</v>
@@ -5217,23 +5140,23 @@
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>18000</v>
@@ -5241,21 +5164,21 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>5000</v>
@@ -5263,7 +5186,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>23000</v>
@@ -5295,26 +5218,26 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>2021</v>
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <v>319138</v>
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5346,55 +5269,55 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="D7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
         <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5432,13 +5355,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -5446,30 +5369,30 @@
     </row>
     <row r="3" spans="1:6">
       <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>760000</v>
@@ -5504,74 +5427,74 @@
     </row>
     <row r="2" spans="1:4">
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
